--- a/code/dynata_prolific_joint/0_vehicle_model_combine_output.xlsx
+++ b/code/dynata_prolific_joint/0_vehicle_model_combine_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/dynata_prolific_joint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A481CCD8-0632-F34B-947F-998CE6DA68A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D89EB6-F7FD-1C4D-BC6E-47A826495767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18560" yWindow="620" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dynata_prolific" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="75">
   <si>
     <t>***</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Key findings</t>
   </si>
   <si>
-    <t>insignificant</t>
-  </si>
-  <si>
     <t>•	The no-choice option has large negative WTP across all segments.
 •	The disutility is stronger for SUVs than cars, particularly among high-budget SUV buyers (−7.26).</t>
   </si>
@@ -287,14 +284,26 @@
     <t>A one-cent increase per mile in operating cost leads to large WTP reductions</t>
   </si>
   <si>
-    <t>a bev with 200 miles range</t>
-  </si>
-  <si>
     <t xml:space="preserve">	•	Both BEV and HEV powertrains show negative WTP relative to ICEV.
 •	The penalty is larger for SUVs than cars, especially for BEVs.</t>
   </si>
   <si>
     <t>•WTP for 100 additional miles of BEV range is positive and substantial</t>
+  </si>
+  <si>
+    <t>insignificant at 5%</t>
+  </si>
+  <si>
+    <t>*From 2023 vehicle survey: the median range among these vehicles is 256miles, with over 80% falling between 200 miles and 350 miles.</t>
+  </si>
+  <si>
+    <t>*a bev with 200 miles range</t>
+  </si>
+  <si>
+    <t>*a bev with 350 miles range</t>
+  </si>
+  <si>
+    <t>*a bev with 250 miles range</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -497,12 +506,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -546,12 +606,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -560,7 +615,6 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -580,9 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,6 +645,35 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C6B581-6348-7A4E-AEE6-D1B659507A84}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1825,22 +1905,22 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
@@ -1849,7 +1929,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1863,7 +1943,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="38"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
@@ -1875,16 +1955,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="12" t="s">
         <v>54</v>
       </c>
@@ -1893,7 +1973,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1909,7 +1989,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="38"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="12" t="s">
         <v>52</v>
       </c>
@@ -1982,7 +2062,7 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3448,8 +3528,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="129" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3458,7 +3538,7 @@
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2"/>
     <col min="9" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="79" style="24" customWidth="1"/>
@@ -3466,48 +3546,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1">
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="44"/>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="39"/>
+      <c r="C3" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="48" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3515,22 +3598,22 @@
       <c r="A4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="60">
         <v>308</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="61">
         <v>197</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="62">
         <v>111</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="63">
         <v>375</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="61">
         <v>151</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="62">
         <v>224</v>
       </c>
       <c r="J4" s="25" t="s">
@@ -3542,53 +3625,53 @@
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="2">
+      <c r="C5" s="51">
         <v>-5.8160170000000004</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="52">
         <v>-3.3560783000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="53">
         <v>-6.6147419999999997</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="51">
         <v>-7.2726660000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="52">
         <v>-4.3114759999999999</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="53">
         <v>-7.2564640999999996</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33">
+      <c r="B6" s="29"/>
+      <c r="C6" s="54">
         <v>-2.5061740000000001</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="55">
         <v>-1.0576521000000001</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="56">
         <v>-2.7941069999999999</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="54">
         <v>-3.1858300000000002</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="55">
         <v>-2.0777700000000001</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="56">
         <v>-1.8880949</v>
       </c>
-      <c r="J6" s="46" t="s">
-        <v>70</v>
+      <c r="J6" s="41" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
@@ -3596,53 +3679,53 @@
         <v>10</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="2">
+      <c r="C7" s="51">
         <v>-0.46252599999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="52">
         <v>-0.33179049999999999</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="57">
         <v>-1.2725999999999999E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="51">
         <v>-0.24129</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="52">
         <v>-0.30935099999999999</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="57">
         <v>-4.5735000000000003E-3</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="32">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="54">
         <v>0.50964900000000002</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="58">
         <v>3.4262599999999997E-2</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="56">
         <v>0.69793799999999995</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="54">
         <v>0.56715199999999999</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="55">
         <v>0.37306600000000001</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="59">
         <v>0.23670669999999999</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="48">
@@ -3652,26 +3735,26 @@
       <c r="B9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="51">
         <v>-0.19911400000000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="52">
         <v>-9.7453499999999998E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="53">
         <v>-0.23416899999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="51">
         <v>-0.36609599999999998</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="52">
         <v>-0.15404699999999999</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="53">
         <v>-0.37307489999999999</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32">
@@ -3681,26 +3764,26 @@
       <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="51">
         <v>-0.103517</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="52">
         <v>-3.53821E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="53">
         <v>-0.17561099999999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="51">
         <v>-0.15104699999999999</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="52">
         <v>-3.5255000000000002E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="53">
         <v>-0.1863493</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="19" customFormat="1" ht="32">
@@ -3710,68 +3793,121 @@
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="49">
         <v>-0.84811899999999996</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>-0.44879469999999999</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="50">
         <v>-0.80171000000000003</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="49">
         <v>-0.82018400000000002</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>-0.56899999999999995</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="50">
         <v>-0.57016480000000003</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="36" customFormat="1">
-      <c r="A13" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="33">
-        <f>C6+C8*2</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="32" customFormat="1">
+      <c r="A13" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="30">
+        <f>C$6+C$8*2</f>
         <v>-1.4868760000000001</v>
       </c>
-      <c r="D13" s="33">
-        <f t="shared" ref="D13:H13" si="0">D6+D8*2</f>
+      <c r="D13" s="30">
+        <f t="shared" ref="D13:H15" si="0">D$6+D$8*2</f>
         <v>-0.98912690000000014</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="30">
         <f t="shared" si="0"/>
         <v>-1.398231</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="30">
         <f t="shared" si="0"/>
         <v>-2.051526</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="30">
         <f t="shared" si="0"/>
         <v>-1.3316380000000001</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="30">
         <f t="shared" si="0"/>
         <v>-1.4146814999999999</v>
       </c>
-      <c r="J13" s="37"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" s="32" customFormat="1">
+      <c r="A14" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="30">
+        <f>C$6+C$8*2.5</f>
+        <v>-1.2320515000000001</v>
+      </c>
+      <c r="D14" s="30">
+        <f t="shared" ref="D14:H15" si="1">D$6+D$8*2.5</f>
+        <v>-0.97199560000000007</v>
+      </c>
+      <c r="E14" s="30">
+        <f t="shared" si="1"/>
+        <v>-1.0492620000000001</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="1"/>
+        <v>-1.7679500000000001</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="1"/>
+        <v>-1.145105</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="1"/>
+        <v>-1.2963281499999999</v>
+      </c>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16"/>
+      <c r="A15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="30">
+        <f>C$6+C$8*3.5</f>
+        <v>-0.72240250000000006</v>
+      </c>
+      <c r="D15" s="30">
+        <f t="shared" ref="D15:H15" si="2">D$6+D$8*3.5</f>
+        <v>-0.93773300000000015</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="2"/>
+        <v>-0.35132399999999997</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="2"/>
+        <v>-1.2007980000000003</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="2"/>
+        <v>-0.77203900000000014</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="2"/>
+        <v>-1.0596214500000001</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17"/>
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/code/dynata_prolific_joint/0_vehicle_model_combine_output.xlsx
+++ b/code/dynata_prolific_joint/0_vehicle_model_combine_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/dynata_prolific_joint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D89EB6-F7FD-1C4D-BC6E-47A826495767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F3C5C-739E-9A44-9B43-948139780008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="3820" windowWidth="31300" windowHeight="13120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dynata_prolific" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="grouping" sheetId="7" r:id="rId3"/>
     <sheet name="WTP model" sheetId="1" r:id="rId4"/>
     <sheet name="WTP summary" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -562,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -619,6 +620,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,6 +653,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,35 +674,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1526,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B46048E-3057-8848-B6F1-64984A50A0A0}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="119" workbookViewId="0">
+    <sheetView zoomScale="119" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
@@ -1911,16 +1911,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="12" t="s">
         <v>54</v>
       </c>
@@ -1929,7 +1929,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1943,7 +1943,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="34"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
@@ -1955,16 +1955,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="12" t="s">
         <v>54</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="50" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1989,7 +1989,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="34"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="12" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2062,7 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3528,8 +3528,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="129" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3549,48 +3549,48 @@
       <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="39"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="58"/>
+      <c r="C3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3598,22 +3598,22 @@
       <c r="A4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="46">
         <v>308</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="47">
         <v>197</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="48">
         <v>111</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="49">
         <v>375</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="47">
         <v>151</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="48">
         <v>224</v>
       </c>
       <c r="J4" s="25" t="s">
@@ -3625,22 +3625,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="51">
+      <c r="C5" s="39">
         <v>-5.8160170000000004</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="2">
         <v>-3.3560783000000001</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="40">
         <v>-6.6147419999999997</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="39">
         <v>-7.2726660000000001</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="2">
         <v>-4.3114759999999999</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="40">
         <v>-7.2564640999999996</v>
       </c>
       <c r="J5" s="26" t="s">
@@ -3652,25 +3652,25 @@
         <v>9</v>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" s="54">
+      <c r="C6" s="41">
         <v>-2.5061740000000001</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="30">
         <v>-1.0576521000000001</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="42">
         <v>-2.7941069999999999</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="41">
         <v>-3.1858300000000002</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="30">
         <v>-2.0777700000000001</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="42">
         <v>-1.8880949</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="60" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3679,25 +3679,25 @@
         <v>10</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="51">
+      <c r="C7" s="39">
         <v>-0.46252599999999999</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="2">
         <v>-0.33179049999999999</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="43">
         <v>-1.2725999999999999E-2</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="39">
         <v>-0.24129</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="2">
         <v>-0.30935099999999999</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="43">
         <v>-4.5735000000000003E-3</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="32">
       <c r="A8" s="28" t="s">
@@ -3706,22 +3706,22 @@
       <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="41">
         <v>0.50964900000000002</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="44">
         <v>3.4262599999999997E-2</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="42">
         <v>0.69793799999999995</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="41">
         <v>0.56715199999999999</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="30">
         <v>0.37306600000000001</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="45">
         <v>0.23670669999999999</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -3735,22 +3735,22 @@
       <c r="B9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="39">
         <v>-0.19911400000000001</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="2">
         <v>-9.7453499999999998E-2</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="40">
         <v>-0.23416899999999999</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="39">
         <v>-0.36609599999999998</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="2">
         <v>-0.15404699999999999</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="40">
         <v>-0.37307489999999999</v>
       </c>
       <c r="J9" s="26" t="s">
@@ -3764,22 +3764,22 @@
       <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="39">
         <v>-0.103517</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="2">
         <v>-3.53821E-2</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="40">
         <v>-0.17561099999999999</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="39">
         <v>-0.15104699999999999</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="2">
         <v>-3.5255000000000002E-2</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="40">
         <v>-0.1863493</v>
       </c>
       <c r="J10" s="26" t="s">
@@ -3793,22 +3793,22 @@
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="37">
         <v>-0.84811899999999996</v>
       </c>
       <c r="D11" s="27">
         <v>-0.44879469999999999</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="38">
         <v>-0.80171000000000003</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="37">
         <v>-0.82018400000000002</v>
       </c>
       <c r="G11" s="27">
         <v>-0.56899999999999995</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="38">
         <v>-0.57016480000000003</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -3824,7 +3824,7 @@
         <v>-1.4868760000000001</v>
       </c>
       <c r="D13" s="30">
-        <f t="shared" ref="D13:H15" si="0">D$6+D$8*2</f>
+        <f t="shared" ref="D13:H13" si="0">D$6+D$8*2</f>
         <v>-0.98912690000000014</v>
       </c>
       <c r="E13" s="30">
@@ -3854,7 +3854,7 @@
         <v>-1.2320515000000001</v>
       </c>
       <c r="D14" s="30">
-        <f t="shared" ref="D14:H15" si="1">D$6+D$8*2.5</f>
+        <f t="shared" ref="D14:H14" si="1">D$6+D$8*2.5</f>
         <v>-0.97199560000000007</v>
       </c>
       <c r="E14" s="30">
@@ -3919,4 +3919,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E78CA78-1DA1-B84F-A98C-CA56F949D884}">
+  <dimension ref="C2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>